--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,91 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15570" windowHeight="6330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7245" windowHeight="3360" tabRatio="916"/>
   </bookViews>
   <sheets>
-    <sheet name="VerifyLoginLogout" sheetId="1" r:id="rId1"/>
-    <sheet name="emp" sheetId="2" r:id="rId2"/>
-    <sheet name="AddUsers" sheetId="3" r:id="rId3"/>
+    <sheet name="Emp" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:G9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UserName</t>
+    <t>FirstName</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>LastName</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>bhanu</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>login123</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>LN</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>user name</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>user2</t>
+    <t>prakash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -118,29 +66,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -202,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,10 +165,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,146 +374,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -378,10 +378,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7245" windowHeight="3360" tabRatio="916"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7245" windowHeight="3360" tabRatio="916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Emp" sheetId="3" r:id="rId1"/>
+    <sheet name="JobTitle" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FirstName</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>prakash</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -409,4 +415,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7245" windowHeight="3360" tabRatio="916" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7245" windowHeight="3360" tabRatio="916"/>
   </bookViews>
   <sheets>
     <sheet name="Emp" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>FirstName</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>suray</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,7 +402,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -408,6 +414,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -421,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
